--- a/Data_file/import_bill_ค่าใช้จ่ายค้างจ่าย214102.xlsx
+++ b/Data_file/import_bill_ค่าใช้จ่ายค้างจ่าย214102.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5150" uniqueCount="2141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="2141">
   <si>
     <t>invoice_date</t>
   </si>
@@ -8159,8 +8159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2625"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -32901,7 +32901,7 @@
     </row>
     <row r="707" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
       <c r="A707" s="39">
-        <v>45932</v>
+        <v>45698</v>
       </c>
       <c r="B707" s="12" t="s">
         <v>684</v>
@@ -32970,8 +32970,8 @@
       </c>
     </row>
     <row r="709" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A709" s="33" t="s">
-        <v>15</v>
+      <c r="A709" s="39">
+        <v>45716</v>
       </c>
       <c r="B709" s="12" t="s">
         <v>686</v>
@@ -33005,8 +33005,8 @@
       </c>
     </row>
     <row r="710" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A710" s="33" t="s">
-        <v>15</v>
+      <c r="A710" s="39">
+        <v>45716</v>
       </c>
       <c r="B710" s="12" t="s">
         <v>687</v>
@@ -33040,8 +33040,8 @@
       </c>
     </row>
     <row r="711" spans="1:13" ht="77.7" customHeight="1" thickBot="1">
-      <c r="A711" s="33" t="s">
-        <v>15</v>
+      <c r="A711" s="39">
+        <v>45716</v>
       </c>
       <c r="B711" s="12" t="s">
         <v>688</v>
@@ -33075,8 +33075,8 @@
       </c>
     </row>
     <row r="712" spans="1:13" ht="77.7" customHeight="1" thickBot="1">
-      <c r="A712" s="33" t="s">
-        <v>15</v>
+      <c r="A712" s="39">
+        <v>45716</v>
       </c>
       <c r="B712" s="12" t="s">
         <v>689</v>
@@ -33110,8 +33110,8 @@
       </c>
     </row>
     <row r="713" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A713" s="33" t="s">
-        <v>15</v>
+      <c r="A713" s="39">
+        <v>45716</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>690</v>
@@ -33145,8 +33145,8 @@
       </c>
     </row>
     <row r="714" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A714" s="33" t="s">
-        <v>15</v>
+      <c r="A714" s="39">
+        <v>45716</v>
       </c>
       <c r="B714" s="12" t="s">
         <v>691</v>
@@ -33180,8 +33180,8 @@
       </c>
     </row>
     <row r="715" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A715" s="33" t="s">
-        <v>15</v>
+      <c r="A715" s="39">
+        <v>45716</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>692</v>
@@ -33215,8 +33215,8 @@
       </c>
     </row>
     <row r="716" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A716" s="33" t="s">
-        <v>15</v>
+      <c r="A716" s="39">
+        <v>45716</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>693</v>
@@ -33250,8 +33250,8 @@
       </c>
     </row>
     <row r="717" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A717" s="33" t="s">
-        <v>15</v>
+      <c r="A717" s="39">
+        <v>45716</v>
       </c>
       <c r="B717" s="12" t="s">
         <v>694</v>
@@ -33285,8 +33285,8 @@
       </c>
     </row>
     <row r="718" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A718" s="33" t="s">
-        <v>15</v>
+      <c r="A718" s="39">
+        <v>45716</v>
       </c>
       <c r="B718" s="12" t="s">
         <v>695</v>
@@ -33320,8 +33320,8 @@
       </c>
     </row>
     <row r="719" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A719" s="33" t="s">
-        <v>15</v>
+      <c r="A719" s="39">
+        <v>45716</v>
       </c>
       <c r="B719" s="12" t="s">
         <v>696</v>
@@ -33355,8 +33355,8 @@
       </c>
     </row>
     <row r="720" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A720" s="33" t="s">
-        <v>15</v>
+      <c r="A720" s="39">
+        <v>45716</v>
       </c>
       <c r="B720" s="12" t="s">
         <v>697</v>
@@ -33390,8 +33390,8 @@
       </c>
     </row>
     <row r="721" spans="1:13" ht="49.65" customHeight="1" thickBot="1">
-      <c r="A721" s="33" t="s">
-        <v>15</v>
+      <c r="A721" s="39">
+        <v>45716</v>
       </c>
       <c r="B721" s="12" t="s">
         <v>698</v>
